--- a/data/trans_dic/P1423-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04908627553356167</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08117348770506264</v>
+        <v>0.08117348770506265</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03355563468896079</v>
@@ -697,7 +697,7 @@
         <v>0.03608729997867452</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0610015657960298</v>
+        <v>0.06100156579602979</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01188753682869616</v>
+        <v>0.01135520508046512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01536302903512342</v>
+        <v>0.01393318223583047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01276619948287192</v>
+        <v>0.01317980425446577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02840738320551648</v>
+        <v>0.02826412655936881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03037087426825909</v>
+        <v>0.02875030049888438</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02567028659074063</v>
+        <v>0.02673102362316255</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02945265801136747</v>
+        <v>0.02914786572612987</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06076065592348551</v>
+        <v>0.06347717897650131</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02253612168011658</v>
+        <v>0.02260769735482494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02366159357308363</v>
+        <v>0.02311346517180653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02351255656460613</v>
+        <v>0.02283476754429272</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04698815142318994</v>
+        <v>0.04875765491867159</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0394561716538163</v>
+        <v>0.04027829562675073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04987896221118889</v>
+        <v>0.0480968246765035</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04292007261302018</v>
+        <v>0.04626829045376964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06412009272465372</v>
+        <v>0.06345083330094653</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08415343263549178</v>
+        <v>0.07735629698496609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07621140408111012</v>
+        <v>0.08244743616363753</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08348510971869716</v>
+        <v>0.08211896466320179</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.105995151413534</v>
+        <v>0.1055524267538519</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04825077840521485</v>
+        <v>0.04788248904391287</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05496498649719926</v>
+        <v>0.05334248248703119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05238149175762891</v>
+        <v>0.05154150680666773</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07565343205677921</v>
+        <v>0.07660837527889686</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02253273469139088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05886833527491388</v>
+        <v>0.05886833527491387</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05941745677788263</v>
@@ -821,7 +821,7 @@
         <v>0.04312471137474351</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09924414076792856</v>
+        <v>0.09924414076792858</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04081252126158203</v>
@@ -833,7 +833,7 @@
         <v>0.0327606730090784</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07771827106623168</v>
+        <v>0.07771827106623169</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01013445054441589</v>
+        <v>0.009834785549492941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01573124002131092</v>
+        <v>0.01672949806954385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01054352904371683</v>
+        <v>0.01004509676224943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04015963031180867</v>
+        <v>0.03934494531452124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0373528705719513</v>
+        <v>0.03896993741029105</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03519351780742472</v>
+        <v>0.03372170239323424</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02553046654378835</v>
+        <v>0.02583112693301397</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07631164892115384</v>
+        <v>0.07632001920683654</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0269014717815357</v>
+        <v>0.02759334476665827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03016439279271831</v>
+        <v>0.02973545204493494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02152228340141927</v>
+        <v>0.02075340710191693</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06160089775390433</v>
+        <v>0.06290743616119006</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04256920613554689</v>
+        <v>0.04352298130752437</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0545996465061111</v>
+        <v>0.05774195772575801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04327381976088193</v>
+        <v>0.0415494698230446</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08453719480991247</v>
+        <v>0.08344900578294163</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08812368279435599</v>
+        <v>0.09051011663766045</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08837694983192917</v>
+        <v>0.08752776057028649</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07285830097818295</v>
+        <v>0.07338479989125413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1273850645988079</v>
+        <v>0.1270537106454707</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05676313441199003</v>
+        <v>0.0574128978359373</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06074333698414668</v>
+        <v>0.06252940535870335</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05032571781796064</v>
+        <v>0.04985512467816256</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09412977714515021</v>
+        <v>0.09349868649234419</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04017795516106089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07267050833113828</v>
+        <v>0.07267050833113826</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1048839817980507</v>
@@ -969,7 +969,7 @@
         <v>0.0633429184098359</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0892555482739473</v>
+        <v>0.08925554827394729</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02199243732557962</v>
+        <v>0.02350214705303787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04780897433961212</v>
+        <v>0.04742806483162327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02595043014316737</v>
+        <v>0.02489411034862724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05162996105224053</v>
+        <v>0.05158477653902792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06198439387326264</v>
+        <v>0.06303111115427859</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1090001827506203</v>
+        <v>0.104613887305109</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08403761102461808</v>
+        <v>0.08878857406241908</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09708596182280767</v>
+        <v>0.09603976484698989</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03764476417162277</v>
+        <v>0.03735819457864047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07074638476377111</v>
+        <v>0.07007068423304888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04614039345727965</v>
+        <v>0.04543385922803368</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07189759547562291</v>
+        <v>0.06948073658323839</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05328761109223711</v>
+        <v>0.05661293772830748</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0893534417169021</v>
+        <v>0.08853895443671822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06092887504615622</v>
+        <v>0.06064875144275038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1009787992442128</v>
+        <v>0.1026838079637069</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1664207273489655</v>
+        <v>0.167458438503805</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1962576103805181</v>
+        <v>0.1926206183443103</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1996204139749985</v>
+        <v>0.199535071176667</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1732265296714403</v>
+        <v>0.1738170275889681</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07220390506303781</v>
+        <v>0.07217268748833645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1108807113061128</v>
+        <v>0.1104893591505117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08401660298373044</v>
+        <v>0.08461364301245568</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1101635658065646</v>
+        <v>0.1114021869149641</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.05631575136481517</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08457637431115002</v>
+        <v>0.08457637431115005</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02329515451303456</v>
+        <v>0.02283633424957248</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03525577718124644</v>
+        <v>0.03524764464651982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02566367407008339</v>
+        <v>0.02535481440163484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04751863710601933</v>
+        <v>0.04815124604554287</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06317120619542341</v>
+        <v>0.06267348153929854</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08705486937094484</v>
+        <v>0.08560107526678391</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06826374987677114</v>
+        <v>0.06774476419067203</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09829188069093971</v>
+        <v>0.09746176975024524</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0407887161132798</v>
+        <v>0.04046688914434211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05925654405419947</v>
+        <v>0.05899950240804648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04577651808043252</v>
+        <v>0.04628049979146534</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07380455947865279</v>
+        <v>0.07403651821229382</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04203470608700655</v>
+        <v>0.04218513731736168</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06124805923722153</v>
+        <v>0.06241705587876053</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04844197758376334</v>
+        <v>0.0485042297388413</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0745389836756056</v>
+        <v>0.07619528339618206</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1030049982074042</v>
+        <v>0.1024486251391613</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1314836510391149</v>
+        <v>0.1338706722171687</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1081525254796265</v>
+        <v>0.1105859482959013</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1352487073793346</v>
+        <v>0.1369156183216491</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05980927195002208</v>
+        <v>0.05944207663497507</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08378762015147882</v>
+        <v>0.08480060408817917</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06781131685256984</v>
+        <v>0.06717175648284397</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09598325188011762</v>
+        <v>0.09711197950668113</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04184515493150386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06779132486895685</v>
+        <v>0.06779132486895684</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09221016651139759</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02711535389216616</v>
+        <v>0.0275433770696562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01962767011019603</v>
+        <v>0.02024257824374426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02889486423406259</v>
+        <v>0.02794948713978348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04897478971645782</v>
+        <v>0.04916245031667649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07013228774125295</v>
+        <v>0.07176452547070354</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1256809876066232</v>
+        <v>0.1231597663329993</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1242080172322046</v>
+        <v>0.1258010586227612</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1485817408013388</v>
+        <v>0.1462919739341923</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0592914658566147</v>
+        <v>0.05826952946187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08599885516646523</v>
+        <v>0.0864217144859107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08598250697675922</v>
+        <v>0.08566133620092772</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1126741416255529</v>
+        <v>0.1115885251548879</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07539223541090137</v>
+        <v>0.07363023576448677</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05205893896698077</v>
+        <v>0.05073592436638176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0614114335177135</v>
+        <v>0.06184626207425999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09174863737920001</v>
+        <v>0.09129159729671309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1209516467094931</v>
+        <v>0.1189552402023278</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1785043757304178</v>
+        <v>0.1765879360663105</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1789206946794849</v>
+        <v>0.1789037300897383</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1904133065663921</v>
+        <v>0.1872563015413356</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09356643476449439</v>
+        <v>0.0958625933508172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1200214161218779</v>
+        <v>0.1198076315079268</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1187202947667045</v>
+        <v>0.1201843237149877</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1451118597557547</v>
+        <v>0.1441390286770458</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.09275544987369158</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1092676199921016</v>
+        <v>0.1092676199921017</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009658800615942605</v>
+        <v>0.009840195172510047</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004126391378033106</v>
+        <v>0.003330334390120353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03311572473616958</v>
+        <v>0.02981284495241681</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05929710334217973</v>
+        <v>0.05921637017996128</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.105719477241932</v>
+        <v>0.1040577456516463</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0939236867907659</v>
+        <v>0.09470029431213828</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1017831503489009</v>
+        <v>0.1022971161226084</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05213847373897036</v>
+        <v>0.05251776736198029</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08521283082249008</v>
+        <v>0.08539199757389546</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07715552323513837</v>
+        <v>0.07753789814761028</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09292305098443067</v>
+        <v>0.09142635402794785</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04909831675924922</v>
+        <v>0.04682697794918627</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02363454408685742</v>
+        <v>0.02308940968481409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03455664074053492</v>
+        <v>0.03357682735395395</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1291192528910518</v>
+        <v>0.1153677790815807</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08890616507411381</v>
+        <v>0.08964839116700071</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1434414319764157</v>
+        <v>0.1435451459954065</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1352630097829196</v>
+        <v>0.1372855981851327</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1431126526453924</v>
+        <v>0.1446525114705652</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07682186223811184</v>
+        <v>0.07684595519675948</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1195929339751726</v>
+        <v>0.117265000539651</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1098184167338548</v>
+        <v>0.1101032423236399</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1290750923869957</v>
+        <v>0.1279582418138047</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02576115624673763</v>
+        <v>0.02525927568869862</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03429628930596468</v>
+        <v>0.03423009592280062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02713879207577579</v>
+        <v>0.0270078790380445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05207900412907332</v>
+        <v>0.05197180135128476</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06664179883081063</v>
+        <v>0.06698644400595638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1040350585207001</v>
+        <v>0.1040430877494719</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09258607017939348</v>
+        <v>0.09254661230454496</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1147342198502468</v>
+        <v>0.1149816350597946</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04840705238016055</v>
+        <v>0.04846393574637153</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07213615101235168</v>
+        <v>0.07235663931599527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06265236239173323</v>
+        <v>0.06205795842934224</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08715724668060298</v>
+        <v>0.08671555662384771</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03751492522794523</v>
+        <v>0.0367789899072764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04957668823936104</v>
+        <v>0.04901321019281314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03936092845637699</v>
+        <v>0.03936099185262312</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06953770101726761</v>
+        <v>0.0694821850700864</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08525308792585472</v>
+        <v>0.0857730497332892</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1256520051735308</v>
+        <v>0.1256354054597338</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1142306872107204</v>
+        <v>0.1126517486544349</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1325350603376863</v>
+        <v>0.1336276475821478</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05919223213987117</v>
+        <v>0.05947223593962916</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08528094300282898</v>
+        <v>0.08608221221644562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07487488527462877</v>
+        <v>0.07419546128761348</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09934557474595555</v>
+        <v>0.09970904766816184</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5632</v>
+        <v>5380</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6717</v>
+        <v>6092</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5478</v>
+        <v>5655</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15642</v>
+        <v>15563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9314</v>
+        <v>8817</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8072</v>
+        <v>8406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10222</v>
+        <v>10116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29676</v>
+        <v>31003</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17588</v>
+        <v>17644</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17786</v>
+        <v>17374</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18249</v>
+        <v>17723</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48822</v>
+        <v>50661</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18693</v>
+        <v>19083</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21808</v>
+        <v>21028</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18417</v>
+        <v>19853</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35306</v>
+        <v>34937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25808</v>
+        <v>23724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23965</v>
+        <v>25926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28974</v>
+        <v>28500</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51769</v>
+        <v>51553</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37658</v>
+        <v>37370</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41315</v>
+        <v>40096</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40656</v>
+        <v>40004</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>78606</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3719</v>
+        <v>3609</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6588</v>
+        <v>7006</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3977</v>
+        <v>3789</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19406</v>
+        <v>19012</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13890</v>
+        <v>14492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11896</v>
+        <v>11398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9504</v>
+        <v>9616</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32291</v>
+        <v>32294</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19875</v>
+        <v>20386</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22829</v>
+        <v>22504</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16131</v>
+        <v>15555</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55832</v>
+        <v>57016</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15620</v>
+        <v>15970</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22866</v>
+        <v>24182</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16324</v>
+        <v>15674</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40849</v>
+        <v>40324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32770</v>
+        <v>33658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29872</v>
+        <v>29585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27123</v>
+        <v>27319</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>53902</v>
+        <v>53762</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41937</v>
+        <v>42417</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>45971</v>
+        <v>47323</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37719</v>
+        <v>37366</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>85315</v>
+        <v>84743</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11928</v>
+        <v>12747</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30092</v>
+        <v>29852</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13544</v>
+        <v>12993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24349</v>
+        <v>24328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10400</v>
+        <v>10575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28354</v>
+        <v>27213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13961</v>
+        <v>14750</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18203</v>
+        <v>18007</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26734</v>
+        <v>26531</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62932</v>
+        <v>62331</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31746</v>
+        <v>31260</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47388</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28903</v>
+        <v>30706</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56240</v>
+        <v>55728</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31800</v>
+        <v>31653</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47623</v>
+        <v>48427</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27922</v>
+        <v>28097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>51052</v>
+        <v>50106</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33162</v>
+        <v>33147</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32479</v>
+        <v>32590</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51277</v>
+        <v>51255</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>98633</v>
+        <v>98285</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57806</v>
+        <v>58217</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>72610</v>
+        <v>73426</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28847</v>
+        <v>28279</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40862</v>
+        <v>40852</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29504</v>
+        <v>29149</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53784</v>
+        <v>54500</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>45122</v>
+        <v>44767</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>66573</v>
+        <v>65461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>56377</v>
+        <v>55949</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>84650</v>
+        <v>83935</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79645</v>
+        <v>79016</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>113994</v>
+        <v>113499</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>90432</v>
+        <v>91428</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>147096</v>
+        <v>147559</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52053</v>
+        <v>52239</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70987</v>
+        <v>72342</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55691</v>
+        <v>55762</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84366</v>
+        <v>86241</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>73575</v>
+        <v>73178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100548</v>
+        <v>102374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>89321</v>
+        <v>91330</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>116478</v>
+        <v>117913</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>116785</v>
+        <v>116068</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>161185</v>
+        <v>163134</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>133962</v>
+        <v>132699</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>191300</v>
+        <v>193549</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9505</v>
+        <v>9655</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10022</v>
+        <v>10336</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17935</v>
+        <v>17348</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27816</v>
+        <v>27923</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39888</v>
+        <v>40816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>95548</v>
+        <v>93632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>91696</v>
+        <v>92872</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>123449</v>
+        <v>121547</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>54507</v>
+        <v>53568</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>109291</v>
+        <v>109828</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>116846</v>
+        <v>116409</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>157610</v>
+        <v>156092</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26429</v>
+        <v>25811</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26581</v>
+        <v>25906</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38118</v>
+        <v>38388</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52110</v>
+        <v>51850</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>68791</v>
+        <v>67656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>135707</v>
+        <v>134250</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132087</v>
+        <v>132075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>158205</v>
+        <v>155582</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>86016</v>
+        <v>88127</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>152528</v>
+        <v>152257</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>161335</v>
+        <v>163324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>202985</v>
+        <v>201624</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2880</v>
+        <v>2934</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1185</v>
+        <v>956</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7856</v>
+        <v>7072</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>74048</v>
+        <v>73947</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>117280</v>
+        <v>115437</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>101628</v>
+        <v>102468</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>85934</v>
+        <v>86368</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>80656</v>
+        <v>81243</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>117273</v>
+        <v>117519</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>105639</v>
+        <v>106163</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>100497</v>
+        <v>98878</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14641</v>
+        <v>13964</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6308</v>
+        <v>6162</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9923</v>
+        <v>9641</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30631</v>
+        <v>27368</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>111022</v>
+        <v>111949</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>159127</v>
+        <v>159242</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>146358</v>
+        <v>148546</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>120827</v>
+        <v>122127</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>118840</v>
+        <v>118878</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>164588</v>
+        <v>161384</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>150360</v>
+        <v>150750</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>139596</v>
+        <v>138388</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>84244</v>
+        <v>82603</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>117359</v>
+        <v>117132</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>91884</v>
+        <v>91441</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>179281</v>
+        <v>178912</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>225124</v>
+        <v>226289</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>369004</v>
+        <v>369032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>326977</v>
+        <v>326837</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>417104</v>
+        <v>418003</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>321825</v>
+        <v>322203</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>502704</v>
+        <v>504241</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>433386</v>
+        <v>429275</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>616888</v>
+        <v>613761</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>122681</v>
+        <v>120274</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>169647</v>
+        <v>167719</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>133265</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>239382</v>
+        <v>239191</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>287996</v>
+        <v>289752</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>445677</v>
+        <v>445618</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>403417</v>
+        <v>397840</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>481817</v>
+        <v>485789</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>393529</v>
+        <v>395390</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>594308</v>
+        <v>599892</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>517933</v>
+        <v>513234</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>703155</v>
+        <v>705728</v>
       </c>
     </row>
     <row r="32">
